--- a/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.13426681455896</v>
+        <v>89.87437494228485</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74981370799243</v>
+        <v>1.592988253845633</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.90504188106652</v>
+        <v>88.8000757843601</v>
       </c>
       <c r="D3" t="n">
-        <v>1.892340150997891</v>
+        <v>1.877977426594188</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.73614096625724</v>
+        <v>87.91745636261214</v>
       </c>
       <c r="D4" t="n">
-        <v>1.940001507895459</v>
+        <v>1.804341278645528</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.85491212628261</v>
+        <v>86.69739076153978</v>
       </c>
       <c r="D5" t="n">
-        <v>1.818625312016571</v>
+        <v>1.762031961820587</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.9407709562134</v>
+        <v>86.20930321837017</v>
       </c>
       <c r="D6" t="n">
-        <v>2.100400153802667</v>
+        <v>1.97432398468475</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.72378988047754</v>
+        <v>84.89300111816056</v>
       </c>
       <c r="D7" t="n">
-        <v>1.876174318457055</v>
+        <v>2.168009120457434</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.0685512928232</v>
+        <v>83.69225174385859</v>
       </c>
       <c r="D8" t="n">
-        <v>2.097347339628223</v>
+        <v>2.223354565724389</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.76609085902484</v>
+        <v>82.9846029338744</v>
       </c>
       <c r="D9" t="n">
-        <v>2.140899087765129</v>
+        <v>1.958486580684913</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.29315854577351</v>
+        <v>82.09820483120691</v>
       </c>
       <c r="D10" t="n">
-        <v>1.977718744332801</v>
+        <v>2.063215248953045</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.77304764895581</v>
+        <v>81.02117018114939</v>
       </c>
       <c r="D11" t="n">
-        <v>2.199151737308934</v>
+        <v>2.159474406842651</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.92826734656595</v>
+        <v>79.87189266443697</v>
       </c>
       <c r="D12" t="n">
-        <v>2.004206414109206</v>
+        <v>1.794779442938192</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.56231349742542</v>
+        <v>79.33809891429259</v>
       </c>
       <c r="D13" t="n">
-        <v>2.070704601846551</v>
+        <v>1.921354688088687</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.9318857051625</v>
+        <v>78.21692774615549</v>
       </c>
       <c r="D14" t="n">
-        <v>2.128157274704548</v>
+        <v>2.064918320616388</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.73960887698469</v>
+        <v>76.88955065130871</v>
       </c>
       <c r="D15" t="n">
-        <v>1.96734266819622</v>
+        <v>1.978477384832926</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.26223478767264</v>
+        <v>76.27208792859305</v>
       </c>
       <c r="D16" t="n">
-        <v>2.300670971078183</v>
+        <v>2.227999061181553</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.83810190874759</v>
+        <v>74.80855126554876</v>
       </c>
       <c r="D17" t="n">
-        <v>2.092971700690982</v>
+        <v>2.034576418471745</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.03249183832047</v>
+        <v>73.90129204141847</v>
       </c>
       <c r="D18" t="n">
-        <v>1.961877792111778</v>
+        <v>2.114471913391829</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.95253153184731</v>
+        <v>73.04639930996392</v>
       </c>
       <c r="D19" t="n">
-        <v>2.173807986624307</v>
+        <v>2.144458555970695</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.89387597994168</v>
+        <v>71.99609226369563</v>
       </c>
       <c r="D20" t="n">
-        <v>2.079346196340651</v>
+        <v>2.098962765200205</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.84203766220224</v>
+        <v>71.20977598526002</v>
       </c>
       <c r="D21" t="n">
-        <v>2.162585722333239</v>
+        <v>2.380817711203177</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.66717894227909</v>
+        <v>69.90249334248794</v>
       </c>
       <c r="D22" t="n">
-        <v>2.320517287966313</v>
+        <v>2.088555780623255</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.03960420102477</v>
+        <v>68.50909007613373</v>
       </c>
       <c r="D23" t="n">
-        <v>2.349036423477269</v>
+        <v>2.471304747796565</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.42335219183329</v>
+        <v>67.71451846697225</v>
       </c>
       <c r="D24" t="n">
-        <v>2.114842395196008</v>
+        <v>2.38199211897365</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.16766864838071</v>
+        <v>66.80235967864881</v>
       </c>
       <c r="D25" t="n">
-        <v>2.606212549378628</v>
+        <v>2.500603543672469</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.91865656007587</v>
+        <v>65.74223075829815</v>
       </c>
       <c r="D26" t="n">
-        <v>2.43674511444372</v>
+        <v>2.120823705829173</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.8042201990271</v>
+        <v>64.84877026833654</v>
       </c>
       <c r="D27" t="n">
-        <v>2.181009475631488</v>
+        <v>2.430206565510741</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.92009534732758</v>
+        <v>63.76228789494238</v>
       </c>
       <c r="D28" t="n">
-        <v>2.358628944218587</v>
+        <v>2.506722226050562</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.96604721022712</v>
+        <v>63.09218177280462</v>
       </c>
       <c r="D29" t="n">
-        <v>2.401031127217006</v>
+        <v>2.81083228780786</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99489384373409</v>
+        <v>62.40902857220925</v>
       </c>
       <c r="D30" t="n">
-        <v>2.42908486302901</v>
+        <v>2.576149570720168</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.73918864099134</v>
+        <v>61.14614992692346</v>
       </c>
       <c r="D31" t="n">
-        <v>2.381323456057107</v>
+        <v>2.392707298930558</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.97756245309839</v>
+        <v>59.98788428206028</v>
       </c>
       <c r="D32" t="n">
-        <v>2.337060064983393</v>
+        <v>2.427901049555547</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.89000153797048</v>
+        <v>58.98148171041595</v>
       </c>
       <c r="D33" t="n">
-        <v>2.427206453717165</v>
+        <v>2.19750053796733</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.51820243523984</v>
+        <v>57.68910146809159</v>
       </c>
       <c r="D34" t="n">
-        <v>2.542504701422081</v>
+        <v>2.772287961432241</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.68798768694055</v>
+        <v>56.7902169100453</v>
       </c>
       <c r="D35" t="n">
-        <v>2.70659667266991</v>
+        <v>2.46663055406419</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.90560427967924</v>
+        <v>55.95667306574942</v>
       </c>
       <c r="D36" t="n">
-        <v>2.702132157467472</v>
+        <v>2.836515333603697</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.17934478536797</v>
+        <v>54.72460470756897</v>
       </c>
       <c r="D37" t="n">
-        <v>2.958932923698272</v>
+        <v>2.86157976783047</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.81882889451196</v>
+        <v>54.31755894299905</v>
       </c>
       <c r="D38" t="n">
-        <v>2.488210349263519</v>
+        <v>2.682227249598229</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.88938419225428</v>
+        <v>53.10877973356528</v>
       </c>
       <c r="D39" t="n">
-        <v>2.632857197324104</v>
+        <v>2.839709395388096</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.12140067100622</v>
+        <v>51.81485973503384</v>
       </c>
       <c r="D40" t="n">
-        <v>2.813852950795729</v>
+        <v>2.25078010418453</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.50242967805076</v>
+        <v>50.53641867421496</v>
       </c>
       <c r="D41" t="n">
-        <v>2.926719396556208</v>
+        <v>3.00857990533141</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.04328660916818</v>
+        <v>49.47935774358855</v>
       </c>
       <c r="D42" t="n">
-        <v>2.640053622825587</v>
+        <v>2.528359408794926</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.59000110885638</v>
+        <v>49.26141200381458</v>
       </c>
       <c r="D43" t="n">
-        <v>2.652119887888776</v>
+        <v>2.641777511568569</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.80868194160919</v>
+        <v>48.36018254743841</v>
       </c>
       <c r="D44" t="n">
-        <v>2.828026227070492</v>
+        <v>3.086124728406959</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.59477045073781</v>
+        <v>46.97163621303257</v>
       </c>
       <c r="D45" t="n">
-        <v>2.76944011822649</v>
+        <v>2.741592039526234</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.81530274425927</v>
+        <v>45.9715427749615</v>
       </c>
       <c r="D46" t="n">
-        <v>2.694691610162982</v>
+        <v>2.84533719215126</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.25899466140876</v>
+        <v>44.46046599014448</v>
       </c>
       <c r="D47" t="n">
-        <v>2.972038449390877</v>
+        <v>2.866744352988126</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.63751888990812</v>
+        <v>43.87899555309858</v>
       </c>
       <c r="D48" t="n">
-        <v>2.815692705070101</v>
+        <v>3.055900995764665</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.19019307792957</v>
+        <v>42.78710032650754</v>
       </c>
       <c r="D49" t="n">
-        <v>2.798818276962593</v>
+        <v>2.683470512082747</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.17143750241154</v>
+        <v>41.81118559469257</v>
       </c>
       <c r="D50" t="n">
-        <v>2.822564370742963</v>
+        <v>2.752554093877196</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.27333604473028</v>
+        <v>40.6870722368847</v>
       </c>
       <c r="D51" t="n">
-        <v>2.815251188435342</v>
+        <v>2.681174260474397</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.245880564426</v>
+        <v>39.72244245059935</v>
       </c>
       <c r="D52" t="n">
-        <v>3.439114883337585</v>
+        <v>2.933124404395703</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.62507551157914</v>
+        <v>39.28065923025866</v>
       </c>
       <c r="D53" t="n">
-        <v>2.819006504767296</v>
+        <v>2.920714663403055</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.53134901533272</v>
+        <v>38.13183961238943</v>
       </c>
       <c r="D54" t="n">
-        <v>2.715177692090336</v>
+        <v>3.05969728044688</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.3710868798761</v>
+        <v>36.94248416530876</v>
       </c>
       <c r="D55" t="n">
-        <v>2.758754275469768</v>
+        <v>2.976561979055067</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.09222940957515</v>
+        <v>35.74352081142574</v>
       </c>
       <c r="D56" t="n">
-        <v>3.04246836694027</v>
+        <v>2.870699400396304</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.71108649721261</v>
+        <v>34.68727638330276</v>
       </c>
       <c r="D57" t="n">
-        <v>2.927213310703283</v>
+        <v>3.105040841482534</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.89179605946286</v>
+        <v>33.88273797379773</v>
       </c>
       <c r="D58" t="n">
-        <v>2.998514793962893</v>
+        <v>2.959589387095575</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.79035276503027</v>
+        <v>32.77837942795264</v>
       </c>
       <c r="D59" t="n">
-        <v>2.905457946433364</v>
+        <v>2.972351937445845</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.87002212065957</v>
+        <v>32.01988167119384</v>
       </c>
       <c r="D60" t="n">
-        <v>2.604641959897619</v>
+        <v>2.994379557335362</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.96110364720133</v>
+        <v>30.51592726047946</v>
       </c>
       <c r="D61" t="n">
-        <v>3.339993548386359</v>
+        <v>2.971563678961097</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.66202250265973</v>
+        <v>30.32089090123634</v>
       </c>
       <c r="D62" t="n">
-        <v>2.835118983438649</v>
+        <v>2.961519571640181</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.57256755132466</v>
+        <v>29.10943383969754</v>
       </c>
       <c r="D63" t="n">
-        <v>3.002557855499001</v>
+        <v>2.990635563539235</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.85523434055801</v>
+        <v>28.38413431016829</v>
       </c>
       <c r="D64" t="n">
-        <v>3.610413503392748</v>
+        <v>3.181703279903021</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.89724239821781</v>
+        <v>27.1077191701909</v>
       </c>
       <c r="D65" t="n">
-        <v>3.041818461388141</v>
+        <v>2.958680890315353</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.62932898249077</v>
+        <v>25.33729744562104</v>
       </c>
       <c r="D66" t="n">
-        <v>3.191480923401721</v>
+        <v>2.983328165594167</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.39816975216169</v>
+        <v>24.3185241154029</v>
       </c>
       <c r="D67" t="n">
-        <v>2.965994768065129</v>
+        <v>3.340686933495563</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.0588021648244</v>
+        <v>23.35637329672567</v>
       </c>
       <c r="D68" t="n">
-        <v>3.212060996022843</v>
+        <v>3.245592408179168</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.2581367593103</v>
+        <v>23.06968316866479</v>
       </c>
       <c r="D69" t="n">
-        <v>3.481132068133304</v>
+        <v>3.002695677007551</v>
       </c>
     </row>
   </sheetData>
